--- a/result/uniform/uniform2/LengthAngleSafety.xlsx
+++ b/result/uniform/uniform2/LengthAngleSafety.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>0.03468378864472062</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001020408163265306</v>
+        <v>0.0009221322812166495</v>
       </c>
       <c r="E2" t="n">
         <v>0.04439290785291662</v>
@@ -487,7 +487,7 @@
         <v>0.07304841392294527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001097926139514251</v>
+        <v>0.00158794164128482</v>
       </c>
       <c r="E3" t="n">
         <v>0.08884887614811823</v>
@@ -506,7 +506,7 @@
         <v>0.5842633166931992</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01448108512319282</v>
+        <v>0.0139748690054193</v>
       </c>
       <c r="E4" t="n">
         <v>0.7361174209500854</v>
@@ -525,10 +525,29 @@
         <v>0.4917639241412332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007341497433953395</v>
+        <v>0.01086675552287899</v>
       </c>
       <c r="E5" t="n">
         <v>0.8200922119331882</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DWA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2979091288159374</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.005854703405353124</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2963923445405455</v>
       </c>
     </row>
   </sheetData>

--- a/result/uniform/uniform2/LengthAngleSafety.xlsx
+++ b/result/uniform/uniform2/LengthAngleSafety.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ConventionalQL</t>
+          <t>ClassicalQL</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/result/uniform/uniform2/LengthAngleSafety.xlsx
+++ b/result/uniform/uniform2/LengthAngleSafety.xlsx
@@ -465,13 +465,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03468378864472062</v>
+        <v>0.0359928067601727</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0009221322812166495</v>
+        <v>0.001155669388428326</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04439290785291662</v>
+        <v>0.0477013933313402</v>
       </c>
     </row>
     <row r="3">
